--- a/P80/BalancedBatteryPack/Derating.xlsx
+++ b/P80/BalancedBatteryPack/Derating.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="319">
   <si>
     <t>Comment</t>
   </si>
@@ -978,6 +978,9 @@
   </si>
   <si>
     <t>U34, U35</t>
+  </si>
+  <si>
+    <t>G125-FS13405L0R</t>
   </si>
 </sst>
 </file>
@@ -1398,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1873,7 +1876,7 @@
     </row>
     <row r="20" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>75</v>
+        <v>318</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>141</v>

--- a/P80/BalancedBatteryPack/Derating.xlsx
+++ b/P80/BalancedBatteryPack/Derating.xlsx
@@ -701,9 +701,6 @@
     <t>33.6V/14V/35uA/283uW</t>
   </si>
   <si>
-    <t>33.6V/14V/2.2A/0.55W</t>
-  </si>
-  <si>
     <t>33.6V/14V/0.22A/0.05W</t>
   </si>
   <si>
@@ -923,9 +920,6 @@
     <t>10nF</t>
   </si>
   <si>
-    <t>SFJ-1212 - 12 A</t>
-  </si>
-  <si>
     <t>CAP CER 10000PF 100V X7S 0402</t>
   </si>
   <si>
@@ -981,6 +975,12 @@
   </si>
   <si>
     <t>G125-FS13405L0R</t>
+  </si>
+  <si>
+    <t>SFJ-1412 - 12 A</t>
+  </si>
+  <si>
+    <t>33.6V/14V/1.5A/0.55W</t>
   </si>
 </sst>
 </file>
@@ -1401,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1450,7 +1450,7 @@
         <v>124</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D2" s="2">
         <v>75</v>
@@ -1498,7 +1498,7 @@
         <v>126</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D4" s="2">
         <v>9</v>
@@ -1546,7 +1546,7 @@
         <v>128</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -1570,7 +1570,7 @@
         <v>129</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -1618,7 +1618,7 @@
         <v>131</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
@@ -1636,13 +1636,13 @@
     </row>
     <row r="10" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>300</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
@@ -1666,7 +1666,7 @@
         <v>132</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
@@ -1714,7 +1714,7 @@
         <v>134</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D13" s="2">
         <v>4</v>
@@ -1747,7 +1747,7 @@
         <v>200</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>206</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="19" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>140</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="20" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>141</v>
@@ -2011,10 +2011,10 @@
         <v>219</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>225</v>
+        <v>318</v>
       </c>
       <c r="H25" s="5"/>
     </row>
@@ -2038,7 +2038,7 @@
         <v>221</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H26" s="5"/>
     </row>
@@ -2074,19 +2074,19 @@
         <v>149</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D28" s="2">
         <v>15</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H28" s="5"/>
     </row>
@@ -2104,13 +2104,13 @@
         <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H29" s="5"/>
     </row>
@@ -2122,19 +2122,19 @@
         <v>151</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D30" s="2">
         <v>18</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F30" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H30" s="5"/>
     </row>
@@ -2152,13 +2152,13 @@
         <v>3</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H31" s="5"/>
     </row>
@@ -2176,13 +2176,13 @@
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H32" s="5"/>
     </row>
@@ -2200,13 +2200,13 @@
         <v>18</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H33" s="5"/>
     </row>
@@ -2218,19 +2218,19 @@
         <v>160</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D34" s="2">
         <v>17</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="G34" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H34" s="5"/>
     </row>
@@ -2242,19 +2242,19 @@
         <v>155</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D35" s="2">
         <v>18</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H35" s="5"/>
     </row>
@@ -2272,13 +2272,13 @@
         <v>16</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="G36" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H36" s="5"/>
     </row>
@@ -2296,13 +2296,13 @@
         <v>16</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H37" s="5"/>
     </row>
@@ -2320,13 +2320,13 @@
         <v>17</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H38" s="5"/>
     </row>
@@ -2344,13 +2344,13 @@
         <v>10</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H39" s="5"/>
     </row>
@@ -2362,19 +2362,19 @@
         <v>161</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D40" s="2">
         <v>12</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="G40" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H40" s="5"/>
     </row>
@@ -2392,13 +2392,13 @@
         <v>8</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="G41" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H41" s="5"/>
     </row>
@@ -2410,19 +2410,19 @@
         <v>163</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D42" s="2">
         <v>5</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="G42" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H42" s="5"/>
     </row>
@@ -2440,11 +2440,11 @@
         <v>3</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H43" s="5"/>
     </row>
@@ -2462,13 +2462,13 @@
         <v>2</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="G44" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H44" s="5"/>
     </row>
@@ -2486,13 +2486,13 @@
         <v>1</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="G45" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H45" s="5"/>
     </row>
@@ -2510,13 +2510,13 @@
         <v>6</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="G46" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H46" s="5"/>
     </row>
@@ -2534,13 +2534,13 @@
         <v>1</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="G47" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H47" s="5"/>
     </row>
@@ -2558,13 +2558,13 @@
         <v>1</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="G48" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H48" s="5"/>
     </row>
@@ -2582,13 +2582,13 @@
         <v>1</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="G49" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H49" s="5"/>
     </row>
@@ -2600,19 +2600,19 @@
         <v>171</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D50" s="2">
         <v>3</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H50" s="5"/>
     </row>
@@ -2630,13 +2630,13 @@
         <v>1</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H51" s="5"/>
     </row>
@@ -2654,13 +2654,13 @@
         <v>3</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H52" s="5"/>
     </row>
@@ -2678,13 +2678,13 @@
         <v>1</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H53" s="5"/>
     </row>
@@ -2696,19 +2696,19 @@
         <v>175</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D54" s="2">
         <v>12</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>257</v>
-      </c>
       <c r="G54" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H54" s="5"/>
     </row>
@@ -2726,13 +2726,13 @@
         <v>10</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H55" s="5"/>
     </row>
@@ -2750,13 +2750,13 @@
         <v>4</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H56" s="5"/>
     </row>
@@ -2774,13 +2774,13 @@
         <v>1</v>
       </c>
       <c r="E57" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H57" s="5"/>
     </row>
@@ -2798,13 +2798,13 @@
         <v>16</v>
       </c>
       <c r="E58" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H58" s="5"/>
     </row>
@@ -2822,13 +2822,13 @@
         <v>8</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H59" s="5"/>
     </row>
@@ -2846,13 +2846,13 @@
         <v>1</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H60" s="5"/>
     </row>
@@ -2870,13 +2870,13 @@
         <v>1</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H61" s="5"/>
     </row>
@@ -2894,13 +2894,13 @@
         <v>3</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H62" s="5"/>
     </row>
@@ -2918,13 +2918,13 @@
         <v>1</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H63" s="5"/>
     </row>
@@ -2942,13 +2942,13 @@
         <v>1</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H64" s="5"/>
     </row>
@@ -2966,13 +2966,13 @@
         <v>2</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H65" s="5"/>
     </row>
@@ -2984,19 +2984,19 @@
         <v>187</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H66" s="5"/>
     </row>
@@ -3017,10 +3017,10 @@
         <v>201</v>
       </c>
       <c r="F67" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H67" s="5"/>
     </row>
@@ -3038,13 +3038,13 @@
         <v>2</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H68" s="5"/>
     </row>
@@ -3062,13 +3062,13 @@
         <v>1</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H69" s="5"/>
     </row>
@@ -3086,13 +3086,13 @@
         <v>1</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F70" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H70" s="5"/>
     </row>

--- a/P80/BalancedBatteryPack/Derating.xlsx
+++ b/P80/BalancedBatteryPack/Derating.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="323">
   <si>
     <t>Comment</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Q3, Q4</t>
   </si>
   <si>
-    <t>Q5, Q6, Q11, Qh1, Qks1</t>
-  </si>
-  <si>
     <t>Q7, Q8, Q9, Q10</t>
   </si>
   <si>
@@ -923,9 +920,6 @@
     <t>CAP CER 10000PF 100V X7S 0402</t>
   </si>
   <si>
-    <t>C1, C3, C4, C6, C7, C8, C9, C10, C11, C13, C14, C15, C16, C17, C18, C20, C21, C22, C23, C24, C25, C27, C28, C29, C30, C31, C32, C34, C35, C36, C37, C38, C39, C41, C42, C43, C44, C45, C46, C48, C49, C50, C51, C52, C53, C55, C56, C57, C58, C59, C60, C61, C62, C63, C64, C65, C66, C67, C71, C73, C77, C78, C79, C86, C87, C88, C89, C91, C93, C95, C97, C98, Cc1, Cc2, Cm1</t>
-  </si>
-  <si>
     <t>C5, C12, C19, C26, C33, C40, C47, C54, C92</t>
   </si>
   <si>
@@ -938,9 +932,6 @@
     <t>C74, C81, C84</t>
   </si>
   <si>
-    <t>C80, C82, C83, C85</t>
-  </si>
-  <si>
     <t>C94, C96</t>
   </si>
   <si>
@@ -950,9 +941,6 @@
     <t>R1, R114, R116, R117, R118, R123, R125, R127, R138, R143, R146, R148, R151, R187, Rh1</t>
   </si>
   <si>
-    <t>R4, R112, R113, R119, R120, R122, R124, R128, R129, R133, R135, R141, R142, R147, R178, R181, R193, R194</t>
-  </si>
-  <si>
     <t>R9, R20, R22, R33, R35, R46, R48, R59, R61, R72, R74, R85, R87, R98, R100, R111, R172</t>
   </si>
   <si>
@@ -981,6 +969,30 @@
   </si>
   <si>
     <t>33.6V/14V/1.5A/0.55W</t>
+  </si>
+  <si>
+    <t>C1, C3, C4, C6, C7, C8, C9, C10, C11, C13, C14, C15, C16, C17, C18, C20, C21, C22, C23, C24, C25, C27, C28, C29, C30, C31, C32, C34, C35, C36, C37, C38, C39, C41, C42, C43, C44, C45, C46, C48, C49, C50, C51, C52, C53, C55, C56, C57, C58, C59, C60, C61, C62, C63, C64, C65, C66, C67, C71, C73, C77, C78, C79, C86, C87, C88, C89, C91, C93, C95, C97, C98, C130, C131, C132, C133, C134, Cc1, Cc2, Cm1</t>
+  </si>
+  <si>
+    <t>C80, C82, C83, C85, C99, C100, C101, C102, C103, C104, C105, C106, C107, C108, C109, C110, C111, C112, C113, C114, C115, C116, C117, C118, C119, C120, C121, C122, C123, C124, C125, C126</t>
+  </si>
+  <si>
+    <t>15pF</t>
+  </si>
+  <si>
+    <t>CAP CER 15PF 50V C0G 0402</t>
+  </si>
+  <si>
+    <t>C127, C128, C129</t>
+  </si>
+  <si>
+    <t>16.8 V</t>
+  </si>
+  <si>
+    <t>Q5, Q6, Q11, Q12, Qh1, Qks1</t>
+  </si>
+  <si>
+    <t>R4, R112, R113, R119, R120, R122, R124, R128, R129, R133, R135, R141, R142, R147, R178, R181, R185, R193, R194, R195, R196</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1051,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1062,11 +1074,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1084,6 +1109,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1399,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1444,34 +1472,34 @@
     </row>
     <row r="2" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="D2" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -1480,46 +1508,46 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D4" s="2">
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -1528,70 +1556,70 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
@@ -1600,346 +1628,346 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>298</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D10" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>68</v>
+        <v>317</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="D12" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>203</v>
+        <v>320</v>
       </c>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>296</v>
+        <v>203</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>207</v>
+        <v>295</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>317</v>
+        <v>73</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>216</v>
@@ -1948,1153 +1976,1177 @@
     </row>
     <row r="23" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>318</v>
+      <c r="G25" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>225</v>
+        <v>294</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>25</v>
+        <v>146</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>321</v>
       </c>
       <c r="D27" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>307</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>26</v>
+        <v>304</v>
       </c>
       <c r="D29" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>308</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>27</v>
+        <v>150</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="D31" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F31" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>309</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D35" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="D36" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="G36" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>16</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>230</v>
-      </c>
       <c r="G37" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>311</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>34</v>
+        <v>307</v>
       </c>
       <c r="D41" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="G41" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>312</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="G42" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>35</v>
+        <v>308</v>
       </c>
       <c r="D43" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>227</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="G45" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D46" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="G46" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D47" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="G47" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="G48" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D49" s="2">
         <v>1</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="G49" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>313</v>
+        <v>40</v>
       </c>
       <c r="D50" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="G50" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>42</v>
+        <v>309</v>
       </c>
       <c r="D51" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D52" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>230</v>
+        <v>292</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D53" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>314</v>
+        <v>43</v>
       </c>
       <c r="D54" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="D55" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="G55" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D56" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="H56" s="5"/>
     </row>
     <row r="57" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D57" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D58" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D59" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D60" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D61" s="2">
         <v>1</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H61" s="5"/>
     </row>
     <row r="62" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D62" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D63" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H63" s="5"/>
     </row>
     <row r="64" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D64" s="2">
         <v>1</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H64" s="5"/>
     </row>
     <row r="65" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D65" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H65" s="5"/>
     </row>
     <row r="66" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>315</v>
+        <v>54</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H66" s="5"/>
     </row>
     <row r="67" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>56</v>
+        <v>311</v>
       </c>
       <c r="D67" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="H67" s="5"/>
     </row>
     <row r="68" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D68" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="H68" s="5"/>
     </row>
     <row r="69" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D69" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H69" s="5"/>
     </row>
     <row r="70" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D70" s="2">
         <v>1</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="F70" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G70" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H70" s="5"/>
+      <c r="H71" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
